--- a/Hardware/Bowden_Transmission/Bill_of_Materials_AK70.xlsx
+++ b/Hardware/Bowden_Transmission/Bill_of_Materials_AK70.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Biomech_Lab\Jack_W\Exoskeleton_Design_Paper\Documentation\Bowden_Transmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA7E38E-C3F6-4CC3-A439-5BBBE9D29C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0315E6D6-72CB-489D-B8E8-7963F4D58B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3487050F-95B1-41F3-B997-EE6688886B50}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3487050F-95B1-41F3-B997-EE6688886B50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Item</t>
   </si>
@@ -68,9 +68,6 @@
     <t>https://www.mcmaster.com/catalog/130/1314/6027K71</t>
   </si>
   <si>
-    <t>Chain (2ft)</t>
-  </si>
-  <si>
     <t>6mm x 13mm x 5mm Flanged Ball Bearing (package of 10)</t>
   </si>
   <si>
@@ -144,6 +141,15 @@
   </si>
   <si>
     <t>Cable Crimps (pack of 50)</t>
+  </si>
+  <si>
+    <t>05B Chain (2ft)</t>
+  </si>
+  <si>
+    <t>Bowden Tube</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jagwire-Sport-Housing-Slick-Lube-Titanium/dp/B085NBZMJS/ref=sr_1_1?crid=1A5WX5ADQYM0Y&amp;dib=eyJ2IjoiMSJ9.CWV7EelBoN67bHKqG_VMGaAHwKq3lWAqkaCYopLdT43GyH4CDNeyWoQ_bFV_YrbZmhmwmsofP69GRzCCWYW_ULIkinZgZrdky8EGo_FPRa2GDLIPcrjwSu8T1nDFsZ03wyuLLatilRsdmpFkqvecV8S7AOhy1XjGVW6Ztcl1kgVL4_2zjOWbooP9z_kj4elJxdrMd7yL-uhr5ZcYm6F_Z725qnNy_c0-wNfaDt_xxhvLSabJzp2Ta9HzGpozVxtWGMo89NRT0qD_9iY1NxHHBedJp86w9TXZ0OfMm9s45WQ.7sQYhAOJzDOGkHvrSoGgv6F0CIzum6_7bjb1Zjv8zzc&amp;dib_tag=se&amp;keywords=Jagwire+Brake+Housing+CGX-SL+Slick-Lube+5+mm+%2810+m%29&amp;qid=1726249759&amp;s=sporting-goods&amp;sprefix=jagwire+brake+housing+cgx-sl+slick-lube+5+mm+10+m+%2Csporting%2C99&amp;sr=1-1</t>
   </si>
 </sst>
 </file>
@@ -603,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7A8379-A03F-4057-98A3-18B429591E6F}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -691,7 +697,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -709,10 +715,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
@@ -727,10 +733,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -745,10 +751,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -763,10 +769,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -781,7 +787,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -790,10 +796,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -808,10 +814,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -826,10 +832,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -844,10 +850,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -862,10 +868,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -880,10 +886,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -898,10 +904,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -916,7 +922,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -924,6 +930,20 @@
       <c r="E19" s="6">
         <f>SUM(E2:E18)</f>
         <v>1739.8600000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>61.97</v>
       </c>
     </row>
   </sheetData>
